--- a/src/assets/files/customer_upload.xlsx
+++ b/src/assets/files/customer_upload.xlsx
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +66,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -109,12 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +420,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -431,26 +439,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
@@ -468,5 +476,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/assets/files/customer_upload.xlsx
+++ b/src/assets/files/customer_upload.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>CUSTOMER NAME</t>
   </si>
@@ -28,23 +28,14 @@
     <t>EMAIL</t>
   </si>
   <si>
-    <t>kathiravan</t>
-  </si>
-  <si>
-    <t>kannan@gmail.com</t>
-  </si>
-  <si>
-    <t>REG003</t>
-  </si>
-  <si>
-    <t>Karthi</t>
+    <t>sample@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +63,13 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -113,18 +111,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,7 +424,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -461,21 +465,15 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>